--- a/medicine/Mort/Tentative_d'assassinat/Tentative_d'assassinat.xlsx
+++ b/medicine/Mort/Tentative_d'assassinat/Tentative_d'assassinat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tentative_d%27assassinat</t>
+          <t>Tentative_d'assassinat</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En droit français, une tentative d'assassinat est une action qui vise à assassiner une personne, c'est-à-dire dont le but est de la tuer volontairement et de manière préméditée, que le passage à l'acte soit effectif ou non et que la mort de la personne visée ait effectivement lieu ou non.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tentative_d%27assassinat</t>
+          <t>Tentative_d'assassinat</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Peines encourues</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sauf cas prévus par la loi, la tentative en elle-même n'est pas une infraction : dès lors qu'il y a une tentative caractérisée, son auteur pourra être puni des faits de l'infraction tentée, et pour le même quantum de peine.
-L'article 221-3 du Code pénal dispose que « Le meurtre commis avec préméditation ou guet-apens constitue un assassinat. Il est puni de la réclusion criminelle à perpétuité »[1].
-La tentative est prévue à l'article 121-4 2° du même code. Elle assimile la tentative à l'infraction initiale, de façon automatique pour les crimes, et lorsque la loi le prévoit, pour les délits[2]. L'article suivant précise les conditions pour que la tentative soit constituée :
+L'article 221-3 du Code pénal dispose que « Le meurtre commis avec préméditation ou guet-apens constitue un assassinat. Il est puni de la réclusion criminelle à perpétuité ».
+La tentative est prévue à l'article 121-4 2° du même code. Elle assimile la tentative à l'infraction initiale, de façon automatique pour les crimes, et lorsque la loi le prévoit, pour les délits. L'article suivant précise les conditions pour que la tentative soit constituée :
 Un commencement d'exécution ;
-Une interruption ou un échec, pour des raisons indépendantes de la volonté de son auteur[3].</t>
+Une interruption ou un échec, pour des raisons indépendantes de la volonté de son auteur.</t>
         </is>
       </c>
     </row>
